--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039A6C6-08CF-406D-8701-F70CD8516F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247D235-1883-4A7A-8238-BC56B076B811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -102,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,13 +163,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,80 +187,80 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -277,26 +277,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:Q67" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:Q67" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q67" xr:uid="{450C3A19-BB32-44B5-88D7-FB37D4333DCC}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,7 +602,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>

--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039A6C6-08CF-406D-8701-F70CD8516F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30113244-116D-4A7B-AB0D-D35ACA862C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -102,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,13 +163,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,80 +187,80 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -277,26 +277,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:Q67" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:Q67" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q67" xr:uid="{450C3A19-BB32-44B5-88D7-FB37D4333DCC}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,7 +602,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>0.8125</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>

--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840BD728-A253-4878-81C9-E231B063CED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25149E39-4D30-4EE0-B915-6EBDF7E43B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>列14</t>
   </si>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,8 +193,16 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
       <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -277,26 +293,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:Q67" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q67" xr:uid="{450C3A19-BB32-44B5-88D7-FB37D4333DCC}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41CE4F2B-226A-4C14-B6F1-7908E979D610}" name="表1" displayName="表1" ref="A1:R67" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R67" xr:uid="{450C3A19-BB32-44B5-88D7-FB37D4333DCC}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{5CDC14FB-DF45-4615-9F85-47FA05661D92}" name="中兴" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴2" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,76 +616,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482BC1C6-5D3C-4C7F-B206-CB95FA1F3CCE}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="2" customWidth="1"/>
-    <col min="2" max="17" width="15.77734375" customWidth="1"/>
+    <col min="2" max="20" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44044.5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="6">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C2" s="6">
         <v>44044.8125</v>
       </c>
@@ -686,12 +708,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44045</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -707,19 +732,20 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44046</v>
       </c>
-      <c r="B4" s="6">
-        <v>44046.5</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="6">
+        <v>44046.5</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.8125</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -732,8 +758,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44047</v>
       </c>
@@ -753,8 +780,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44048</v>
       </c>
@@ -774,8 +802,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44049</v>
       </c>
@@ -795,8 +824,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44050</v>
       </c>
@@ -816,8 +846,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44051</v>
       </c>
@@ -837,8 +868,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44052</v>
       </c>
@@ -858,8 +890,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44053</v>
       </c>
@@ -879,8 +912,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44054</v>
       </c>
@@ -900,8 +934,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44055</v>
       </c>
@@ -921,8 +956,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44056</v>
       </c>
@@ -942,8 +978,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44057</v>
       </c>
@@ -963,8 +1000,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44058</v>
       </c>
@@ -984,8 +1022,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44059</v>
       </c>
@@ -1005,8 +1044,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44060</v>
       </c>
@@ -1026,8 +1066,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44061</v>
       </c>
@@ -1047,8 +1088,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44062</v>
       </c>
@@ -1068,8 +1110,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44063</v>
       </c>
@@ -1089,8 +1132,9 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44064</v>
       </c>
@@ -1110,8 +1154,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44065</v>
       </c>
@@ -1131,8 +1176,9 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44066</v>
       </c>
@@ -1152,8 +1198,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44067</v>
       </c>
@@ -1173,8 +1220,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44068</v>
       </c>
@@ -1194,8 +1242,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44069</v>
       </c>
@@ -1215,8 +1264,9 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44070</v>
       </c>
@@ -1236,8 +1286,9 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44071</v>
       </c>
@@ -1257,8 +1308,9 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44072</v>
       </c>
@@ -1278,8 +1330,9 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44073</v>
       </c>
@@ -1299,8 +1352,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44074</v>
       </c>
@@ -1320,8 +1374,9 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44075</v>
       </c>
@@ -1341,8 +1396,9 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44076</v>
       </c>
@@ -1362,8 +1418,9 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44077</v>
       </c>
@@ -1383,8 +1440,9 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44078</v>
       </c>
@@ -1404,8 +1462,9 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44079</v>
       </c>
@@ -1425,8 +1484,9 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44080</v>
       </c>
@@ -1446,8 +1506,9 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44081</v>
       </c>
@@ -1467,8 +1528,9 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44082</v>
       </c>
@@ -1488,8 +1550,9 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44083</v>
       </c>
@@ -1509,8 +1572,9 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44084</v>
       </c>
@@ -1530,8 +1594,9 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44085</v>
       </c>
@@ -1551,8 +1616,9 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44086</v>
       </c>
@@ -1572,8 +1638,9 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44087</v>
       </c>
@@ -1593,8 +1660,9 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44088</v>
       </c>
@@ -1614,8 +1682,9 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44089</v>
       </c>
@@ -1635,8 +1704,9 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44090</v>
       </c>
@@ -1656,8 +1726,9 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44091</v>
       </c>
@@ -1677,8 +1748,9 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44092</v>
       </c>
@@ -1698,8 +1770,9 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44093</v>
       </c>
@@ -1719,8 +1792,9 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44094</v>
       </c>
@@ -1740,8 +1814,9 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44095</v>
       </c>
@@ -1761,8 +1836,9 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44096</v>
       </c>
@@ -1782,8 +1858,9 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44097</v>
       </c>
@@ -1803,8 +1880,9 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44098</v>
       </c>
@@ -1824,8 +1902,9 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44099</v>
       </c>
@@ -1845,8 +1924,9 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44100</v>
       </c>
@@ -1866,8 +1946,9 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44101</v>
       </c>
@@ -1887,8 +1968,9 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44102</v>
       </c>
@@ -1908,8 +1990,9 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44103</v>
       </c>
@@ -1929,8 +2012,9 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44104</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44105</v>
       </c>
@@ -1971,8 +2056,9 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44106</v>
       </c>
@@ -1992,8 +2078,9 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44107</v>
       </c>
@@ -2013,8 +2100,9 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44108</v>
       </c>
@@ -2034,8 +2122,9 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44109</v>
       </c>
@@ -2055,6 +2144,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25149E39-4D30-4EE0-B915-6EBDF7E43B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC75CA-CB82-4D63-9583-717C121213C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>列14</t>
   </si>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>现场面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,14 +207,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <family val="3"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -269,6 +269,14 @@
     <dxf>
       <font>
         <b/>
+        <family val="3"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -297,23 +305,23 @@
   <autoFilter ref="A1:R67" xr:uid="{450C3A19-BB32-44B5-88D7-FB37D4333DCC}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0934600C-2334-40AB-86FD-377AEE0FA9D1}" name="时间" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{5CDC14FB-DF45-4615-9F85-47FA05661D92}" name="中兴" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴2" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{5CDC14FB-DF45-4615-9F85-47FA05661D92}" name="中兴" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{67FE9BC0-7B7C-4F76-B4C8-3CA180EACD0D}" name="猿辅导" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D03BD468-34ED-4B5B-8F55-2CE08C8BA362}" name="拼多多" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C9A162E1-C2F4-4E1F-835A-997CA2ADC702}" name="oppo" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7B0E0690-66CE-4D63-9BDE-FF5B62735459}" name="阿里" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{666F4DFD-8A70-4F86-B39E-6F5FC1ED77D9}" name="虎牙" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1009E23E-68F8-474A-9516-20D022D50D67}" name="海康威视" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{2BED2DDB-A217-4524-9A88-B247D442F57A}" name="顺丰" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{26F8B817-1C33-4892-B06C-63BF0DAB7931}" name="欢聚yy" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{24901329-68B7-4B43-AB62-228BF65190AC}" name="斗鱼" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{612E32EE-7132-49AA-B30A-D0FC1FE80163}" name="网易" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{53536033-F39B-4EA3-9D17-DD5EBF0A0B9B}" name="寒武纪" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7FABECAA-07A1-49CB-864C-BEA1AC1B1F86}" name="中兴2" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{EBC24911-F384-4B23-AAE5-67ABDB930DEB}" name="列14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{5B05DA71-448A-42E4-B0E3-DD8A11BDABC3}" name="列15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2F74E6C7-7BE5-417F-9B39-C675B91CC9A6}" name="列16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{811B744A-1D93-4EFA-9622-720BFC39904A}" name="列17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,7 +627,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -717,7 +725,9 @@
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -749,7 +759,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="6">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -766,12 +778,18 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>

--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC75CA-CB82-4D63-9583-717C121213C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38AAEB3-DD23-4D59-8365-0289CE65B70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="6">
-        <v>0.39583333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>

--- a/求职时间线.xlsx
+++ b/求职时间线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\存储文件\教研室相关\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38AAEB3-DD23-4D59-8365-0289CE65B70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD60A160-68AE-4D50-BCB0-9F59F0FAB633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{689AADB2-0264-4E19-8D2B-0C76E002DE92}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
